--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/172.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/172.xlsx
@@ -479,13 +479,13 @@
         <v>-0.9859758249583611</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.60636173434269</v>
+        <v>-14.04440400282116</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.467610585488059</v>
+        <v>-1.179972692055338</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.80144058892562</v>
+        <v>-11.42188482059501</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-1.015508708086535</v>
       </c>
       <c r="E3" t="n">
-        <v>-13.92802652286106</v>
+        <v>-14.33221209619083</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.290995420153175</v>
+        <v>-1.017588859909409</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.72629077061411</v>
+        <v>-11.34346192657308</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.9994765211082939</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.48801050000737</v>
+        <v>-14.81753067023077</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.138548645864116</v>
+        <v>-0.872774898177077</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.40202061383024</v>
+        <v>-10.97652395482802</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.9098784207811264</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.12595914057615</v>
+        <v>-15.42823422858593</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.097451907243938</v>
+        <v>-0.8059255998672237</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.40554244329466</v>
+        <v>-10.95247339450777</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.7249321409781025</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.76943273294415</v>
+        <v>-16.01592151854533</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.8795043418377242</v>
+        <v>-0.6132723635512246</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.971650434817018</v>
+        <v>-10.54563008370113</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.4274315850992658</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.50635918299638</v>
+        <v>-16.72184539546835</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.8080465529275833</v>
+        <v>-0.5245720117985304</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.851476187032814</v>
+        <v>-10.40713970424135</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.005203100919552375</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.17312398211981</v>
+        <v>-17.37856839831218</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6588859466517982</v>
+        <v>-0.3810541880475293</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.373476210281396</v>
+        <v>-9.971938465479536</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.5394272362596472</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.98696771136719</v>
+        <v>-18.16201180036106</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6787338777598549</v>
+        <v>-0.4122269611136791</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.192121631317807</v>
+        <v>-9.799957975350623</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>1.195696875307813</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.61043626499302</v>
+        <v>-18.73790292546007</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5465147113612634</v>
+        <v>-0.2367246415203411</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.890841558324006</v>
+        <v>-9.497853087277793</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>1.93689743762743</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.27590492613512</v>
+        <v>-19.38544822401184</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3180802113788269</v>
+        <v>-0.01014924854142978</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.534010844372762</v>
+        <v>-9.138678851117881</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>2.719158567696546</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.89227745162074</v>
+        <v>-19.98973655397455</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5318513321785302</v>
+        <v>-0.2074764369719251</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.005710240103431</v>
+        <v>-8.612931245902686</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>3.49194936269195</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.71958006818941</v>
+        <v>-20.75875223829185</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2912540828561302</v>
+        <v>0.01017000546892908</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.382398794111696</v>
+        <v>-7.989672169122318</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>4.194424416958843</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.45486998038643</v>
+        <v>-21.53194436721567</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.08201289883966417</v>
+        <v>0.2379629826121209</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.109502833678757</v>
+        <v>-7.698446984710962</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>4.770909190923038</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.31481170793952</v>
+        <v>-22.39849770770383</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07510782756389038</v>
+        <v>0.4057015666203153</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.475364053236913</v>
+        <v>-7.025201495680883</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>5.183793025622496</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.34077692782854</v>
+        <v>-23.44948231832339</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3500592795429796</v>
+        <v>0.6807970339306635</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.054970208989089</v>
+        <v>-6.651128218887086</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>5.414345107932196</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.03782422342488</v>
+        <v>-24.12766360552481</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4981594092885848</v>
+        <v>0.8177425216551182</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.842115549388307</v>
+        <v>-6.482761204342489</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>5.467637593210879</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.96571500272653</v>
+        <v>-25.03121579384369</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7516525769100849</v>
+        <v>1.11341908903266</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.309193362215847</v>
+        <v>-5.945544741837943</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>5.364767650228842</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.80969721311556</v>
+        <v>-25.83787184883095</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8358229918795418</v>
+        <v>1.208403746149382</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.147241576063696</v>
+        <v>-5.834181613866221</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>5.134024362635364</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.5504204309919</v>
+        <v>-26.58524595655089</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9840540446535644</v>
+        <v>1.350573062707686</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.832450246537234</v>
+        <v>-5.522781190775766</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>4.805731553913488</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.18436282689111</v>
+        <v>-27.23137728639575</v>
       </c>
       <c r="F21" t="n">
-        <v>1.214779697633303</v>
+        <v>1.60121210830969</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.545872829634693</v>
+        <v>-5.260607826370202</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>4.407805157279282</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.78800963401458</v>
+        <v>-27.81008325660573</v>
       </c>
       <c r="F22" t="n">
-        <v>1.302642142004127</v>
+        <v>1.713308405240548</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.946428651723422</v>
+        <v>-4.599904763462495</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.965588750926456</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.19515406778658</v>
+        <v>-28.22025201233416</v>
       </c>
       <c r="F23" t="n">
-        <v>1.468351419071853</v>
+        <v>1.89673156805313</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.902071929695655</v>
+        <v>-4.598818102326632</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.50089662778911</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.51509067232984</v>
+        <v>-28.52358757687412</v>
       </c>
       <c r="F24" t="n">
-        <v>1.361570597094736</v>
+        <v>1.779057950111697</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.674305137158146</v>
+        <v>-4.318236960125601</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.036075317404235</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.78513251074328</v>
+        <v>-28.81093743964432</v>
       </c>
       <c r="F25" t="n">
-        <v>1.66599282277055</v>
+        <v>2.075677163293842</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.464199861154126</v>
+        <v>-4.054047381082411</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.5889465901743</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.7869916177468</v>
+        <v>-28.82887389453748</v>
       </c>
       <c r="F26" t="n">
-        <v>1.578510055182136</v>
+        <v>1.98039138321176</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.600516918342178</v>
+        <v>-4.16842173870773</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.174454274967543</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.94726758913521</v>
+        <v>-28.98702891286554</v>
       </c>
       <c r="F27" t="n">
-        <v>1.489613318886817</v>
+        <v>1.922025897143345</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.31662342352219</v>
+        <v>-3.862939036501735</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.808514924203503</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.77592862184554</v>
+        <v>-28.7997304284118</v>
       </c>
       <c r="F28" t="n">
-        <v>1.722918155526375</v>
+        <v>2.132707234472401</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.408269543414272</v>
+        <v>-3.918384939036445</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.502734681830342</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.79542306077687</v>
+        <v>-28.80475787270302</v>
       </c>
       <c r="F29" t="n">
-        <v>1.574556179723935</v>
+        <v>1.986518580941688</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.362315560439814</v>
+        <v>-3.856510715806448</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.268045594503931</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.58857776818044</v>
+        <v>-28.61197371335861</v>
       </c>
       <c r="F30" t="n">
-        <v>1.614592441813933</v>
+        <v>2.043731944360031</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.338251907816721</v>
+        <v>-3.833730108861845</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.111743473209472</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.18892213163391</v>
+        <v>-28.19603125207697</v>
       </c>
       <c r="F31" t="n">
-        <v>1.504669467154802</v>
+        <v>1.926110695629964</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.683417379935988</v>
+        <v>-4.141857456241867</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.035597498572192</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.13248121408323</v>
+        <v>-28.09689633495942</v>
       </c>
       <c r="F32" t="n">
-        <v>1.500872699330701</v>
+        <v>1.913306423450756</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.912545771969036</v>
+        <v>-4.375057554458692</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.040399455496508</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.55903834961563</v>
+        <v>-27.52110994828315</v>
       </c>
       <c r="F33" t="n">
-        <v>1.435411185122071</v>
+        <v>1.845671586970399</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.236986128689849</v>
+        <v>-4.6597104028435</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.119175257602073</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.9636527855853</v>
+        <v>-26.94451183883069</v>
       </c>
       <c r="F34" t="n">
-        <v>1.518625861984082</v>
+        <v>1.921711681875144</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.178188596627657</v>
+        <v>-4.566296822067785</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.261089980253542</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.71217583260142</v>
+        <v>-26.71377309354811</v>
       </c>
       <c r="F35" t="n">
-        <v>1.321036827496752</v>
+        <v>1.720352064169397</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.481275407413616</v>
+        <v>-4.87261743165565</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.452269232110647</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.8177097024547</v>
+        <v>-25.83162682037545</v>
       </c>
       <c r="F36" t="n">
-        <v>1.250325299848589</v>
+        <v>1.642269570021343</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.65325589754253</v>
+        <v>-5.074697126017692</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.675706013742711</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.26016089363695</v>
+        <v>-25.32611991535357</v>
       </c>
       <c r="F37" t="n">
-        <v>1.152421059198162</v>
+        <v>1.532425149179261</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.88263304332957</v>
+        <v>-5.316891636286782</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.916480683935816</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.83654634289006</v>
+        <v>-24.86284877929909</v>
       </c>
       <c r="F38" t="n">
-        <v>1.136003311434637</v>
+        <v>1.517709400785161</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.030837911497909</v>
+        <v>-5.471524825150409</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>2.15986869816153</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.29969646486509</v>
+        <v>-24.38209941895091</v>
       </c>
       <c r="F39" t="n">
-        <v>1.072702027194891</v>
+        <v>1.422685466759913</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.177943026227544</v>
+        <v>-5.601020792557922</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>2.39393662526093</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.83982932754946</v>
+        <v>-23.9190377597419</v>
       </c>
       <c r="F40" t="n">
-        <v>1.046059190911979</v>
+        <v>1.416741561269769</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.29230429155002</v>
+        <v>-5.716298519079319</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>2.610383160849924</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.04798066707618</v>
+        <v>-23.11918970223233</v>
       </c>
       <c r="F41" t="n">
-        <v>1.176523988729779</v>
+        <v>1.510849034096096</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.41487443075426</v>
+        <v>-5.833880490900861</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>2.802218053860544</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.6140755662957</v>
+        <v>-22.71309265268767</v>
       </c>
       <c r="F42" t="n">
-        <v>1.292142115125062</v>
+        <v>1.629177267179616</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.515161470521882</v>
+        <v>-5.909514724417512</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>2.967294967091665</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.77453164657001</v>
+        <v>-21.88431060589788</v>
       </c>
       <c r="F43" t="n">
-        <v>1.479689353332788</v>
+        <v>1.815611659645796</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.504046105409256</v>
+        <v>-5.892756576780103</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>3.104443312237584</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.46743859111448</v>
+        <v>-21.61669084351016</v>
       </c>
       <c r="F44" t="n">
-        <v>1.450860102475307</v>
+        <v>1.781178903172056</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.712030428352917</v>
+        <v>-6.08569784375862</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>3.212814330893214</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.92381999252034</v>
+        <v>-21.06902672333792</v>
       </c>
       <c r="F45" t="n">
-        <v>1.50291509857401</v>
+        <v>1.844414725897593</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.843424779672479</v>
+        <v>-6.199509232361745</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>3.292433626599385</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.37832919461982</v>
+        <v>-20.56401732582402</v>
       </c>
       <c r="F46" t="n">
-        <v>1.668742206367313</v>
+        <v>2.008356542081687</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.754724427919785</v>
+        <v>-6.130002196575021</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>3.341018090460839</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.81952352472927</v>
+        <v>-20.02896109328836</v>
       </c>
       <c r="F47" t="n">
-        <v>1.565024983255159</v>
+        <v>1.89089240098572</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.142793376451388</v>
+        <v>-6.515622884475221</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>3.354480336463757</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.3143046503699</v>
+        <v>-19.56347735805363</v>
       </c>
       <c r="F48" t="n">
-        <v>1.577515040166165</v>
+        <v>1.923282758216151</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.155558371722071</v>
+        <v>-6.548301272368169</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>3.327320081912085</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.64972626582104</v>
+        <v>-18.88538771697211</v>
       </c>
       <c r="F49" t="n">
-        <v>1.608596167112423</v>
+        <v>1.945434934624351</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.621971660458562</v>
+        <v>-7.003821765140344</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>3.254097285165572</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.03039487989319</v>
+        <v>-18.32359700203364</v>
       </c>
       <c r="F50" t="n">
-        <v>1.604144784146236</v>
+        <v>1.930719186230251</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.623752213645036</v>
+        <v>-6.999619135928151</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>3.12936349637757</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.15738703410405</v>
+        <v>-17.47772950003541</v>
       </c>
       <c r="F51" t="n">
-        <v>1.642060093175875</v>
+        <v>1.968084618540537</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.969965069991641</v>
+        <v>-7.371322705907595</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>2.950406561061522</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.77916349730943</v>
+        <v>-17.13380779668611</v>
       </c>
       <c r="F52" t="n">
-        <v>1.537086008990915</v>
+        <v>1.864812533725002</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.881578933507148</v>
+        <v>-7.290778858825297</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>2.717618981432123</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.18627856312186</v>
+        <v>-16.58059254010897</v>
       </c>
       <c r="F53" t="n">
-        <v>1.687961706938967</v>
+        <v>1.981255475199314</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.989629708859914</v>
+        <v>-7.397232373231371</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>2.43170960465778</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.83053451030648</v>
+        <v>-16.23136845410877</v>
       </c>
       <c r="F54" t="n">
-        <v>1.427634357234085</v>
+        <v>1.724436862656015</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.367237907420977</v>
+        <v>-7.787893597725635</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>2.100069112470178</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.20099112816209</v>
+        <v>-15.64365497954369</v>
       </c>
       <c r="F55" t="n">
-        <v>1.499301622989694</v>
+        <v>1.801760003239249</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.591338855162801</v>
+        <v>-7.958303011513542</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>1.73166627757599</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.82566099029548</v>
+        <v>-15.25438153915064</v>
       </c>
       <c r="F56" t="n">
-        <v>1.377857421829843</v>
+        <v>1.650831936079831</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.841886254644914</v>
+        <v>-8.182652713009359</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>1.336643852249137</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.12632254170184</v>
+        <v>-14.5833748339065</v>
       </c>
       <c r="F57" t="n">
-        <v>1.301856603833623</v>
+        <v>1.562039938207245</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.205459504559647</v>
+        <v>-8.506438454588087</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.930404167867966</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.8896660755348</v>
+        <v>-14.36839922124536</v>
       </c>
       <c r="F58" t="n">
-        <v>1.177086957751974</v>
+        <v>1.439757829665524</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.202055505820798</v>
+        <v>-8.539967842165748</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.5260857753065727</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.35827568779482</v>
+        <v>-13.85689604152196</v>
       </c>
       <c r="F59" t="n">
-        <v>1.226431847162439</v>
+        <v>1.495321562925809</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.417738102835393</v>
+        <v>-8.71997391393664</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1368425691151169</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.21075161937426</v>
+        <v>-13.72017312294582</v>
       </c>
       <c r="F60" t="n">
-        <v>1.125110515470321</v>
+        <v>1.365891057032505</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.313418633792519</v>
+        <v>-8.629244255243478</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2234008913672665</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.83027620649085</v>
+        <v>-13.40002704155709</v>
       </c>
       <c r="F61" t="n">
-        <v>1.04637340618018</v>
+        <v>1.287507439919091</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.608925001233118</v>
+        <v>-8.857914416677065</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5455531479054684</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.48275411986008</v>
+        <v>-13.08422760471182</v>
       </c>
       <c r="F62" t="n">
-        <v>1.062346015647086</v>
+        <v>1.293084760929667</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.872603980465481</v>
+        <v>-9.152766168975578</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.8193289065823554</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.04664951220218</v>
+        <v>-12.64791352020845</v>
       </c>
       <c r="F63" t="n">
-        <v>1.040521146809929</v>
+        <v>1.250966822687834</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.842753529986346</v>
+        <v>-9.13306225319878</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.03727029609812</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.76130277176676</v>
+        <v>-12.39006061574066</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9732398025062986</v>
+        <v>1.188568907344167</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.009091237590475</v>
+        <v>-9.314613216704995</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.19607397474004</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.49847479221911</v>
+        <v>-12.13724824786693</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9882566738657584</v>
+        <v>1.188568907344167</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.19708361409482</v>
+        <v>-9.492943473712145</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.292220148496146</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.26918929255196</v>
+        <v>-11.92079320498467</v>
       </c>
       <c r="F66" t="n">
-        <v>0.786347179440659</v>
+        <v>0.9918439648443914</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.166159594782664</v>
+        <v>-9.493820658002543</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.326793449230216</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.07500425680348</v>
+        <v>-11.73122975213932</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7528046995601568</v>
+        <v>0.9591917615571266</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.251259563253884</v>
+        <v>-9.563353878394949</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.303463167328774</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.91474137771791</v>
+        <v>-11.60388092239785</v>
       </c>
       <c r="F68" t="n">
-        <v>0.7018887338086842</v>
+        <v>0.8795905602794321</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.157963813203743</v>
+        <v>-9.488937229042579</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.227553532601345</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.7512316075276</v>
+        <v>-11.42877137188976</v>
       </c>
       <c r="F69" t="n">
-        <v>0.4651929907331186</v>
+        <v>0.6614858872391175</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.122326564868565</v>
+        <v>-9.44306179988517</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.106903989840666</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.64399255495102</v>
+        <v>-11.32398057994459</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5945187582036887</v>
+        <v>0.7989419747743995</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.040591318227669</v>
+        <v>-9.376526716843518</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.9501521638667638</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.49179453441595</v>
+        <v>-11.1594757947383</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5072585597635845</v>
+        <v>0.7106082075012737</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.711987609203186</v>
+        <v>-9.024959108634647</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7676111490143838</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.44468842879142</v>
+        <v>-11.09699932557758</v>
       </c>
       <c r="F72" t="n">
-        <v>0.5048495760407068</v>
+        <v>0.73219741488728</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.546343793649667</v>
+        <v>-8.879045393463612</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5697899729417488</v>
       </c>
       <c r="E73" t="n">
-        <v>-10.45843534677524</v>
+        <v>-11.10142452393809</v>
       </c>
       <c r="F73" t="n">
-        <v>0.3499938180287709</v>
+        <v>0.5693029829305243</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.478591126443735</v>
+        <v>-8.83345799496872</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3683579300376277</v>
       </c>
       <c r="E74" t="n">
-        <v>-10.59213394339494</v>
+        <v>-11.22124527954556</v>
       </c>
       <c r="F74" t="n">
-        <v>0.4561985786808528</v>
+        <v>0.6702184532345488</v>
       </c>
       <c r="G74" t="n">
-        <v>-8.2575930544754</v>
+        <v>-8.60643746369319</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1751969106433623</v>
       </c>
       <c r="E75" t="n">
-        <v>-10.66187664063282</v>
+        <v>-11.28191501091412</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2359336756716534</v>
+        <v>0.4871749672043766</v>
       </c>
       <c r="G75" t="n">
-        <v>-8.070556416078501</v>
+        <v>-8.432375297412442</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.001125345244007701</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.03406462581741</v>
+        <v>-11.65134052019911</v>
       </c>
       <c r="F76" t="n">
-        <v>0.3425050208033036</v>
+        <v>0.5934320970678254</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.826044568206425</v>
+        <v>-8.183726281842381</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.1432946139877962</v>
       </c>
       <c r="E77" t="n">
-        <v>-11.38839470992588</v>
+        <v>-12.02633025819182</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2505577779458614</v>
+        <v>0.4970203789413546</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.674880839595856</v>
+        <v>-8.004806871207352</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.2500085917507281</v>
       </c>
       <c r="E78" t="n">
-        <v>-11.95585439199481</v>
+        <v>-12.59621201628648</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1941168603951803</v>
+        <v>0.4689766662543774</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.418625196074752</v>
+        <v>-7.760727069329054</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.3122430214736536</v>
       </c>
       <c r="E79" t="n">
-        <v>-12.38228378785267</v>
+        <v>-13.00715321788257</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1101951991797162</v>
+        <v>0.3646441049086624</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.372631936191768</v>
+        <v>-7.718923346355422</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.3254090023736531</v>
       </c>
       <c r="E80" t="n">
-        <v>-12.88347023293679</v>
+        <v>-13.5188527821486</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2859200879213635</v>
+        <v>0.5895567754266745</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.043007027545631</v>
+        <v>-7.417001750522378</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.2855835643782511</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.73694436288607</v>
+        <v>-14.37675211045838</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1479926774837794</v>
+        <v>0.4246854057408181</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.040257643948868</v>
+        <v>-7.395045958656802</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1888797982306537</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.40317237759298</v>
+        <v>-15.03962849563781</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2091468240574819</v>
+        <v>0.5119194195752389</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.868329523031321</v>
+        <v>-7.241067384935262</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.03385995357838381</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.14832079382982</v>
+        <v>-15.80081498285577</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0509132519123806</v>
+        <v>0.3713866408721513</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.583126797927161</v>
+        <v>-6.976052990813043</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1831265757517136</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.26530370307452</v>
+        <v>-16.89764883802705</v>
       </c>
       <c r="F84" t="n">
-        <v>0.04024302509637386</v>
+        <v>0.3736908861722951</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.39971672741742</v>
+        <v>-6.77578003424316</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4621701870125247</v>
       </c>
       <c r="E85" t="n">
-        <v>-17.08617799894791</v>
+        <v>-17.71409793553993</v>
       </c>
       <c r="F85" t="n">
-        <v>0.07650870396795506</v>
+        <v>0.4261910205676166</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.122303922504086</v>
+        <v>-6.521501328451156</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.8003915439830632</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.08910076583549</v>
+        <v>-18.73898958659593</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.004244619959811326</v>
+        <v>0.3769639618827266</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.818405388941941</v>
+        <v>-6.218610902207823</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.196793549761899</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.1195173686907</v>
+        <v>-19.7625850996706</v>
       </c>
       <c r="F87" t="n">
-        <v>0.01644121853011586</v>
+        <v>0.4089484577250634</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.391766516238613</v>
+        <v>-5.820984572601761</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.643798981690385</v>
       </c>
       <c r="E88" t="n">
-        <v>-20.42720276112798</v>
+        <v>-21.07431601368598</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1535438138886712</v>
+        <v>0.5258365374959937</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.201496079039809</v>
+        <v>-5.635309533700402</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.133445030583106</v>
       </c>
       <c r="E89" t="n">
-        <v>-21.9730502345591</v>
+        <v>-22.63220840573149</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.05141618709855035</v>
+        <v>0.3406590061026202</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.860363036195794</v>
+        <v>-5.28812784694351</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.655701664774922</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.48038015302987</v>
+        <v>-24.14383259953433</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.2250986765968884</v>
+        <v>0.1573536740156135</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.599433440560194</v>
+        <v>-5.041455769102549</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.193985602744962</v>
       </c>
       <c r="E91" t="n">
-        <v>-24.94157279628639</v>
+        <v>-25.5778979913028</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2580781874551963</v>
+        <v>0.1197394879513345</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.628184137600624</v>
+        <v>-5.074356726143807</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.734508179517397</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.60510697996179</v>
+        <v>-27.2749746548587</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4247562949332109</v>
+        <v>-0.04107326785358675</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.365094311996139</v>
+        <v>-4.782817326464251</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.259267487656676</v>
       </c>
       <c r="E93" t="n">
-        <v>-28.5867448457826</v>
+        <v>-29.23210372975981</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3974326589025286</v>
+        <v>-0.01913056829085387</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.364046927768801</v>
+        <v>-4.806671502241875</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.746249775082162</v>
       </c>
       <c r="E94" t="n">
-        <v>-30.72092113201237</v>
+        <v>-31.37523515113331</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.3694805923354434</v>
+        <v>-0.01364489340017064</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.434614440085705</v>
+        <v>-4.873167308375002</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.180358482373356</v>
       </c>
       <c r="E95" t="n">
-        <v>-32.91656578008404</v>
+        <v>-33.55709360431265</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.7553500339896358</v>
+        <v>-0.387521785651342</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.615248942392999</v>
+        <v>-5.030274942475715</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.539552029070689</v>
       </c>
       <c r="E96" t="n">
-        <v>-35.04233680788942</v>
+        <v>-35.6575048415136</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.8422043710416466</v>
+        <v>-0.5045800653592147</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.7790991124572</v>
+        <v>-5.162192985908947</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.811949385110096</v>
       </c>
       <c r="E97" t="n">
-        <v>-37.33049166784073</v>
+        <v>-37.95106682253854</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.125259958479764</v>
+        <v>-0.7955957729251018</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.935106993119208</v>
+        <v>-5.3538904841175</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.98173599901598</v>
       </c>
       <c r="E98" t="n">
-        <v>-39.79188387899375</v>
+        <v>-40.39670899337297</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.438742057722053</v>
+        <v>-1.090251140680989</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.232865236648585</v>
+        <v>-5.61989989325569</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-6.054631307325154</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.17059819770127</v>
+        <v>-42.77192766722175</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.319170055868569</v>
+        <v>-0.9823574729623241</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.577991431859325</v>
+        <v>-5.983093466388013</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.015756264463975</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.70621067366405</v>
+        <v>-45.3164429091169</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.477508366436404</v>
+        <v>-1.122301098037534</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.780791202877662</v>
+        <v>-6.175340841315919</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.903371303314638</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.17247322147419</v>
+        <v>-47.78588688651759</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.67537233928341</v>
+        <v>-1.282105746523643</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.18309148459822</v>
+        <v>-6.554860516091874</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.681181571411051</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.5239162733624</v>
+        <v>-50.13205374036058</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.767201751415277</v>
+        <v>-1.367022422755078</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.47609722219605</v>
+        <v>-6.847394930787401</v>
       </c>
     </row>
   </sheetData>
